--- a/data/dataframe/10021.xlsx
+++ b/data/dataframe/10021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shujie/jlab/CJ/CJ-database/data/JAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C718DC-C5EC-D042-A57C-7A9771B6851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8488526-E909-034A-8F57-F393042C7538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="16380" windowHeight="8200" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33780" yWindow="1160" windowWidth="26940" windowHeight="19140" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>d/p</t>
   </si>
   <si>
-    <t>mu</t>
-  </si>
-  <si>
     <t>nc</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>mu_minus</t>
   </si>
 </sst>
 </file>
@@ -219,9 +219,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +259,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -365,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8886,8 +8886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8915,7 +8915,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -8965,10 +8965,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -9018,10 +9018,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -9071,10 +9071,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -9124,10 +9124,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -9177,10 +9177,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -9230,10 +9230,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -9283,10 +9283,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -9336,10 +9336,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -9389,10 +9389,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -9442,10 +9442,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -9495,10 +9495,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9548,10 +9548,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -9601,10 +9601,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -9654,10 +9654,10 @@
         <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -9707,10 +9707,10 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9760,10 +9760,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -9813,10 +9813,10 @@
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -9866,10 +9866,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -9919,10 +9919,10 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9972,10 +9972,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -10025,10 +10025,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -10078,10 +10078,10 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -10131,10 +10131,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10184,10 +10184,10 @@
         <v>19</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -10237,10 +10237,10 @@
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -10290,10 +10290,10 @@
         <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -10343,10 +10343,10 @@
         <v>19</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10396,10 +10396,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10449,10 +10449,10 @@
         <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -10502,10 +10502,10 @@
         <v>19</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -10555,10 +10555,10 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10608,10 +10608,10 @@
         <v>19</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -10661,10 +10661,10 @@
         <v>19</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -10714,10 +10714,10 @@
         <v>19</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -10767,10 +10767,10 @@
         <v>19</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10820,10 +10820,10 @@
         <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -10873,10 +10873,10 @@
         <v>19</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10926,10 +10926,10 @@
         <v>19</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -10979,10 +10979,10 @@
         <v>19</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11032,10 +11032,10 @@
         <v>19</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -11085,10 +11085,10 @@
         <v>19</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -11138,10 +11138,10 @@
         <v>19</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -11191,10 +11191,10 @@
         <v>19</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -11244,10 +11244,10 @@
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -11297,10 +11297,10 @@
         <v>19</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -11350,10 +11350,10 @@
         <v>19</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -11403,10 +11403,10 @@
         <v>19</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -11456,10 +11456,10 @@
         <v>19</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -11509,10 +11509,10 @@
         <v>19</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -11562,10 +11562,10 @@
         <v>19</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -11615,10 +11615,10 @@
         <v>19</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -11668,10 +11668,10 @@
         <v>19</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -11721,10 +11721,10 @@
         <v>19</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -11774,10 +11774,10 @@
         <v>19</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -11827,10 +11827,10 @@
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -11880,10 +11880,10 @@
         <v>19</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -11933,10 +11933,10 @@
         <v>19</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -11986,10 +11986,10 @@
         <v>19</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -12039,10 +12039,10 @@
         <v>19</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -12092,10 +12092,10 @@
         <v>19</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -12145,10 +12145,10 @@
         <v>19</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -12198,10 +12198,10 @@
         <v>19</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -12251,10 +12251,10 @@
         <v>19</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -12304,10 +12304,10 @@
         <v>19</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -12357,10 +12357,10 @@
         <v>19</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -12410,10 +12410,10 @@
         <v>19</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -12463,10 +12463,10 @@
         <v>19</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -12516,10 +12516,10 @@
         <v>19</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -12569,10 +12569,10 @@
         <v>19</v>
       </c>
       <c r="F70" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -12622,10 +12622,10 @@
         <v>19</v>
       </c>
       <c r="F71" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -12675,10 +12675,10 @@
         <v>19</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -12728,10 +12728,10 @@
         <v>19</v>
       </c>
       <c r="F73" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -12781,10 +12781,10 @@
         <v>19</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -12834,10 +12834,10 @@
         <v>19</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
@@ -12887,10 +12887,10 @@
         <v>19</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
@@ -12940,10 +12940,10 @@
         <v>19</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -12993,10 +12993,10 @@
         <v>19</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -13046,10 +13046,10 @@
         <v>19</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -13099,10 +13099,10 @@
         <v>19</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -13152,10 +13152,10 @@
         <v>19</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -13205,10 +13205,10 @@
         <v>19</v>
       </c>
       <c r="F82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
@@ -13258,10 +13258,10 @@
         <v>19</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -13311,10 +13311,10 @@
         <v>19</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -13364,10 +13364,10 @@
         <v>19</v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -13417,10 +13417,10 @@
         <v>19</v>
       </c>
       <c r="F86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -13470,10 +13470,10 @@
         <v>19</v>
       </c>
       <c r="F87" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
@@ -13523,10 +13523,10 @@
         <v>19</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
@@ -13576,10 +13576,10 @@
         <v>19</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -13629,10 +13629,10 @@
         <v>19</v>
       </c>
       <c r="F90" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -13682,10 +13682,10 @@
         <v>19</v>
       </c>
       <c r="F91" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -13735,10 +13735,10 @@
         <v>19</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -13788,10 +13788,10 @@
         <v>19</v>
       </c>
       <c r="F93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
@@ -13841,10 +13841,10 @@
         <v>19</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
@@ -13894,10 +13894,10 @@
         <v>19</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
@@ -13947,10 +13947,10 @@
         <v>19</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -14000,10 +14000,10 @@
         <v>19</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H97" s="7">
         <v>1</v>
@@ -14053,10 +14053,10 @@
         <v>19</v>
       </c>
       <c r="F98" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
@@ -14106,10 +14106,10 @@
         <v>19</v>
       </c>
       <c r="F99" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H99" s="7">
         <v>1</v>
@@ -14159,10 +14159,10 @@
         <v>19</v>
       </c>
       <c r="F100" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
@@ -14212,10 +14212,10 @@
         <v>19</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H101" s="7">
         <v>1</v>
@@ -14265,10 +14265,10 @@
         <v>19</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H102" s="7">
         <v>1</v>
@@ -14318,10 +14318,10 @@
         <v>19</v>
       </c>
       <c r="F103" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -14371,10 +14371,10 @@
         <v>19</v>
       </c>
       <c r="F104" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -14424,10 +14424,10 @@
         <v>19</v>
       </c>
       <c r="F105" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H105" s="7">
         <v>1</v>
@@ -14477,10 +14477,10 @@
         <v>19</v>
       </c>
       <c r="F106" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H106" s="7">
         <v>1</v>
@@ -14530,10 +14530,10 @@
         <v>19</v>
       </c>
       <c r="F107" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H107" s="7">
         <v>1</v>
@@ -14583,10 +14583,10 @@
         <v>19</v>
       </c>
       <c r="F108" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H108" s="7">
         <v>1</v>
@@ -14636,10 +14636,10 @@
         <v>19</v>
       </c>
       <c r="F109" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H109" s="7">
         <v>1</v>
@@ -14689,10 +14689,10 @@
         <v>19</v>
       </c>
       <c r="F110" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
@@ -14742,10 +14742,10 @@
         <v>19</v>
       </c>
       <c r="F111" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H111" s="7">
         <v>1</v>
@@ -14795,10 +14795,10 @@
         <v>19</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H112" s="7">
         <v>1</v>
@@ -14848,10 +14848,10 @@
         <v>19</v>
       </c>
       <c r="F113" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H113" s="7">
         <v>1</v>
@@ -14901,10 +14901,10 @@
         <v>19</v>
       </c>
       <c r="F114" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H114" s="7">
         <v>1</v>
@@ -14954,10 +14954,10 @@
         <v>19</v>
       </c>
       <c r="F115" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H115" s="7">
         <v>1</v>
@@ -15007,10 +15007,10 @@
         <v>19</v>
       </c>
       <c r="F116" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H116" s="7">
         <v>1</v>
@@ -15060,10 +15060,10 @@
         <v>19</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H117" s="7">
         <v>1</v>
@@ -15113,10 +15113,10 @@
         <v>19</v>
       </c>
       <c r="F118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H118" s="7">
         <v>1</v>
@@ -15166,10 +15166,10 @@
         <v>19</v>
       </c>
       <c r="F119" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H119" s="7">
         <v>1</v>
@@ -15219,10 +15219,10 @@
         <v>19</v>
       </c>
       <c r="F120" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H120" s="7">
         <v>1</v>
@@ -15272,10 +15272,10 @@
         <v>19</v>
       </c>
       <c r="F121" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H121" s="7">
         <v>1</v>
@@ -15325,10 +15325,10 @@
         <v>19</v>
       </c>
       <c r="F122" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H122" s="7">
         <v>1</v>
@@ -15378,10 +15378,10 @@
         <v>19</v>
       </c>
       <c r="F123" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H123" s="7">
         <v>1</v>
@@ -15431,10 +15431,10 @@
         <v>19</v>
       </c>
       <c r="F124" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H124" s="7">
         <v>1</v>
@@ -15484,10 +15484,10 @@
         <v>19</v>
       </c>
       <c r="F125" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H125" s="7">
         <v>1</v>
@@ -15537,10 +15537,10 @@
         <v>19</v>
       </c>
       <c r="F126" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H126" s="7">
         <v>1</v>
@@ -15590,10 +15590,10 @@
         <v>19</v>
       </c>
       <c r="F127" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H127" s="7">
         <v>1</v>
@@ -15643,10 +15643,10 @@
         <v>19</v>
       </c>
       <c r="F128" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H128" s="7">
         <v>1</v>
@@ -15696,10 +15696,10 @@
         <v>19</v>
       </c>
       <c r="F129" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H129" s="7">
         <v>1</v>
@@ -15749,10 +15749,10 @@
         <v>19</v>
       </c>
       <c r="F130" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H130" s="7">
         <v>1</v>
@@ -15802,10 +15802,10 @@
         <v>19</v>
       </c>
       <c r="F131" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H131" s="7">
         <v>1</v>
@@ -15855,10 +15855,10 @@
         <v>19</v>
       </c>
       <c r="F132" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H132" s="7">
         <v>1</v>
@@ -15908,10 +15908,10 @@
         <v>19</v>
       </c>
       <c r="F133" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H133" s="7">
         <v>1</v>
@@ -15961,10 +15961,10 @@
         <v>19</v>
       </c>
       <c r="F134" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H134" s="7">
         <v>1</v>
@@ -16014,10 +16014,10 @@
         <v>19</v>
       </c>
       <c r="F135" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H135" s="7">
         <v>1</v>
@@ -16067,10 +16067,10 @@
         <v>19</v>
       </c>
       <c r="F136" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H136" s="7">
         <v>1</v>
@@ -16120,10 +16120,10 @@
         <v>19</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H137" s="7">
         <v>1</v>
@@ -16173,10 +16173,10 @@
         <v>19</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H138" s="7">
         <v>1</v>
@@ -16226,10 +16226,10 @@
         <v>19</v>
       </c>
       <c r="F139" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H139" s="7">
         <v>1</v>
@@ -16279,10 +16279,10 @@
         <v>19</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H140" s="7">
         <v>1</v>
@@ -16332,10 +16332,10 @@
         <v>19</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H141" s="7">
         <v>1</v>
@@ -16385,10 +16385,10 @@
         <v>19</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H142" s="7">
         <v>1</v>
@@ -16438,10 +16438,10 @@
         <v>19</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H143" s="7">
         <v>1</v>
@@ -16491,10 +16491,10 @@
         <v>19</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H144" s="7">
         <v>1</v>
@@ -16544,10 +16544,10 @@
         <v>19</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H145" s="7">
         <v>1</v>
@@ -16597,10 +16597,10 @@
         <v>19</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H146" s="7">
         <v>1</v>
@@ -16650,10 +16650,10 @@
         <v>19</v>
       </c>
       <c r="F147" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H147" s="7">
         <v>1</v>
@@ -16703,10 +16703,10 @@
         <v>19</v>
       </c>
       <c r="F148" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H148" s="7">
         <v>1</v>
@@ -16756,10 +16756,10 @@
         <v>19</v>
       </c>
       <c r="F149" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H149" s="7">
         <v>1</v>
@@ -16809,10 +16809,10 @@
         <v>19</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H150" s="7">
         <v>1</v>
@@ -16862,10 +16862,10 @@
         <v>19</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H151" s="7">
         <v>1</v>
@@ -16915,10 +16915,10 @@
         <v>19</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H152" s="7">
         <v>1</v>
@@ -16968,10 +16968,10 @@
         <v>19</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H153" s="7">
         <v>1</v>
@@ -17021,10 +17021,10 @@
         <v>19</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H154" s="7">
         <v>1</v>
@@ -17074,10 +17074,10 @@
         <v>19</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H155" s="7">
         <v>1</v>
@@ -17127,10 +17127,10 @@
         <v>19</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H156" s="7">
         <v>1</v>
@@ -17180,10 +17180,10 @@
         <v>19</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H157" s="7">
         <v>1</v>
@@ -17233,10 +17233,10 @@
         <v>19</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H158" s="7">
         <v>1</v>
@@ -17286,10 +17286,10 @@
         <v>19</v>
       </c>
       <c r="F159" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H159" s="7">
         <v>1</v>
@@ -17339,10 +17339,10 @@
         <v>19</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H160" s="7">
         <v>1</v>
@@ -17392,10 +17392,10 @@
         <v>19</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H161" s="7">
         <v>1</v>
@@ -17445,10 +17445,10 @@
         <v>19</v>
       </c>
       <c r="F162" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H162" s="7">
         <v>1</v>
@@ -17498,10 +17498,10 @@
         <v>19</v>
       </c>
       <c r="F163" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H163" s="7">
         <v>1</v>
@@ -17551,10 +17551,10 @@
         <v>19</v>
       </c>
       <c r="F164" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H164" s="7">
         <v>1</v>
@@ -17604,10 +17604,10 @@
         <v>19</v>
       </c>
       <c r="F165" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H165" s="7">
         <v>1</v>
@@ -17657,10 +17657,10 @@
         <v>19</v>
       </c>
       <c r="F166" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H166" s="7">
         <v>1</v>
@@ -17710,10 +17710,10 @@
         <v>19</v>
       </c>
       <c r="F167" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H167" s="7">
         <v>1</v>
@@ -17763,10 +17763,10 @@
         <v>19</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H168" s="7">
         <v>1</v>
@@ -17816,10 +17816,10 @@
         <v>19</v>
       </c>
       <c r="F169" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H169" s="7">
         <v>1</v>
@@ -17869,10 +17869,10 @@
         <v>19</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H170" s="7">
         <v>1</v>
@@ -17922,10 +17922,10 @@
         <v>19</v>
       </c>
       <c r="F171" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H171" s="7">
         <v>1</v>
@@ -17975,10 +17975,10 @@
         <v>19</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H172" s="7">
         <v>1</v>
@@ -18028,10 +18028,10 @@
         <v>19</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H173" s="7">
         <v>1</v>
@@ -18081,10 +18081,10 @@
         <v>19</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H174" s="7">
         <v>1</v>
@@ -18134,10 +18134,10 @@
         <v>19</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H175" s="7">
         <v>1</v>
@@ -18187,10 +18187,10 @@
         <v>19</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H176" s="7">
         <v>1</v>
@@ -18240,10 +18240,10 @@
         <v>19</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H177" s="7">
         <v>1</v>
@@ -18293,10 +18293,10 @@
         <v>19</v>
       </c>
       <c r="F178" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H178" s="7">
         <v>1</v>
@@ -18346,10 +18346,10 @@
         <v>19</v>
       </c>
       <c r="F179" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H179" s="7">
         <v>1</v>
@@ -18399,10 +18399,10 @@
         <v>19</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H180" s="7">
         <v>1</v>
@@ -18452,10 +18452,10 @@
         <v>19</v>
       </c>
       <c r="F181" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H181" s="7">
         <v>1</v>
@@ -18505,10 +18505,10 @@
         <v>19</v>
       </c>
       <c r="F182" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H182" s="7">
         <v>1</v>
@@ -18558,10 +18558,10 @@
         <v>19</v>
       </c>
       <c r="F183" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H183" s="7">
         <v>1</v>
@@ -18611,10 +18611,10 @@
         <v>19</v>
       </c>
       <c r="F184" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H184" s="7">
         <v>1</v>
@@ -18664,10 +18664,10 @@
         <v>19</v>
       </c>
       <c r="F185" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H185" s="7">
         <v>1</v>
@@ -18717,10 +18717,10 @@
         <v>19</v>
       </c>
       <c r="F186" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G186" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H186" s="7">
         <v>1</v>
@@ -18770,10 +18770,10 @@
         <v>19</v>
       </c>
       <c r="F187" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H187" s="7">
         <v>1</v>
@@ -18823,10 +18823,10 @@
         <v>19</v>
       </c>
       <c r="F188" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H188" s="7">
         <v>1</v>
@@ -18876,10 +18876,10 @@
         <v>19</v>
       </c>
       <c r="F189" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H189" s="7">
         <v>1</v>
@@ -18929,10 +18929,10 @@
         <v>19</v>
       </c>
       <c r="F190" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H190" s="7">
         <v>1</v>
@@ -18982,10 +18982,10 @@
         <v>19</v>
       </c>
       <c r="F191" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H191" s="7">
         <v>1</v>
@@ -19035,10 +19035,10 @@
         <v>19</v>
       </c>
       <c r="F192" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H192" s="7">
         <v>1</v>
@@ -19088,10 +19088,10 @@
         <v>19</v>
       </c>
       <c r="F193" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H193" s="7">
         <v>1</v>
@@ -19141,10 +19141,10 @@
         <v>19</v>
       </c>
       <c r="F194" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G194" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H194" s="7">
         <v>1</v>
@@ -19194,10 +19194,10 @@
         <v>19</v>
       </c>
       <c r="F195" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G195" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H195" s="7">
         <v>1</v>
@@ -19247,10 +19247,10 @@
         <v>19</v>
       </c>
       <c r="F196" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G196" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H196" s="7">
         <v>1</v>
@@ -19300,10 +19300,10 @@
         <v>19</v>
       </c>
       <c r="F197" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H197" s="7">
         <v>1</v>
@@ -19353,10 +19353,10 @@
         <v>19</v>
       </c>
       <c r="F198" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H198" s="7">
         <v>1</v>
@@ -19406,10 +19406,10 @@
         <v>19</v>
       </c>
       <c r="F199" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H199" s="7">
         <v>1</v>
@@ -19459,10 +19459,10 @@
         <v>19</v>
       </c>
       <c r="F200" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G200" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G200" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H200" s="7">
         <v>1</v>
@@ -19512,10 +19512,10 @@
         <v>19</v>
       </c>
       <c r="F201" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H201" s="7">
         <v>1</v>
@@ -19565,10 +19565,10 @@
         <v>19</v>
       </c>
       <c r="F202" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G202" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H202" s="7">
         <v>1</v>
@@ -19618,10 +19618,10 @@
         <v>19</v>
       </c>
       <c r="F203" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H203" s="7">
         <v>1</v>
@@ -19671,10 +19671,10 @@
         <v>19</v>
       </c>
       <c r="F204" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G204" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H204" s="7">
         <v>1</v>
@@ -19724,10 +19724,10 @@
         <v>19</v>
       </c>
       <c r="F205" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H205" s="7">
         <v>1</v>
@@ -19777,10 +19777,10 @@
         <v>19</v>
       </c>
       <c r="F206" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G206" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G206" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H206" s="7">
         <v>1</v>
@@ -19830,10 +19830,10 @@
         <v>19</v>
       </c>
       <c r="F207" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H207" s="7">
         <v>1</v>
@@ -19883,10 +19883,10 @@
         <v>19</v>
       </c>
       <c r="F208" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G208" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H208" s="7">
         <v>1</v>
@@ -19936,10 +19936,10 @@
         <v>19</v>
       </c>
       <c r="F209" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H209" s="7">
         <v>1</v>
@@ -19989,10 +19989,10 @@
         <v>19</v>
       </c>
       <c r="F210" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G210" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H210" s="7">
         <v>1</v>
@@ -20042,10 +20042,10 @@
         <v>19</v>
       </c>
       <c r="F211" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G211" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H211" s="7">
         <v>1</v>
@@ -20095,10 +20095,10 @@
         <v>19</v>
       </c>
       <c r="F212" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G212" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G212" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H212" s="7">
         <v>1</v>
@@ -20148,10 +20148,10 @@
         <v>19</v>
       </c>
       <c r="F213" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H213" s="7">
         <v>1</v>
@@ -20201,10 +20201,10 @@
         <v>19</v>
       </c>
       <c r="F214" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G214" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H214" s="7">
         <v>1</v>
@@ -20254,10 +20254,10 @@
         <v>19</v>
       </c>
       <c r="F215" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H215" s="7">
         <v>1</v>
@@ -20307,10 +20307,10 @@
         <v>19</v>
       </c>
       <c r="F216" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G216" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H216" s="7">
         <v>1</v>
@@ -20360,10 +20360,10 @@
         <v>19</v>
       </c>
       <c r="F217" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G217" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H217" s="7">
         <v>1</v>
@@ -20413,10 +20413,10 @@
         <v>19</v>
       </c>
       <c r="F218" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G218" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H218" s="7">
         <v>1</v>
@@ -20466,10 +20466,10 @@
         <v>19</v>
       </c>
       <c r="F219" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G219" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H219" s="7">
         <v>1</v>
@@ -20519,10 +20519,10 @@
         <v>19</v>
       </c>
       <c r="F220" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G220" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H220" s="7">
         <v>1</v>
@@ -20572,10 +20572,10 @@
         <v>19</v>
       </c>
       <c r="F221" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G221" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H221" s="7">
         <v>1</v>
@@ -20625,10 +20625,10 @@
         <v>19</v>
       </c>
       <c r="F222" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G222" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H222" s="7">
         <v>1</v>
@@ -20678,10 +20678,10 @@
         <v>19</v>
       </c>
       <c r="F223" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G223" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H223" s="7">
         <v>1</v>
@@ -20731,10 +20731,10 @@
         <v>19</v>
       </c>
       <c r="F224" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H224" s="7">
         <v>1</v>
@@ -20784,10 +20784,10 @@
         <v>19</v>
       </c>
       <c r="F225" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H225" s="7">
         <v>1</v>
@@ -20837,10 +20837,10 @@
         <v>19</v>
       </c>
       <c r="F226" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H226" s="7">
         <v>1</v>
@@ -20890,10 +20890,10 @@
         <v>19</v>
       </c>
       <c r="F227" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H227" s="7">
         <v>1</v>
@@ -20943,10 +20943,10 @@
         <v>19</v>
       </c>
       <c r="F228" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G228" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H228" s="7">
         <v>1</v>
@@ -20996,10 +20996,10 @@
         <v>19</v>
       </c>
       <c r="F229" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H229" s="7">
         <v>1</v>
@@ -21049,10 +21049,10 @@
         <v>19</v>
       </c>
       <c r="F230" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G230" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H230" s="7">
         <v>1</v>
@@ -21102,10 +21102,10 @@
         <v>19</v>
       </c>
       <c r="F231" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H231" s="7">
         <v>1</v>
@@ -21155,10 +21155,10 @@
         <v>19</v>
       </c>
       <c r="F232" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H232" s="7">
         <v>1</v>
@@ -21208,10 +21208,10 @@
         <v>19</v>
       </c>
       <c r="F233" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H233" s="7">
         <v>1</v>
@@ -21261,10 +21261,10 @@
         <v>19</v>
       </c>
       <c r="F234" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H234" s="7">
         <v>1</v>
@@ -21314,10 +21314,10 @@
         <v>19</v>
       </c>
       <c r="F235" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G235" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H235" s="7">
         <v>1</v>
@@ -21367,10 +21367,10 @@
         <v>19</v>
       </c>
       <c r="F236" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G236" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H236" s="7">
         <v>1</v>
@@ -21420,10 +21420,10 @@
         <v>19</v>
       </c>
       <c r="F237" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G237" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H237" s="7">
         <v>1</v>
@@ -21473,10 +21473,10 @@
         <v>19</v>
       </c>
       <c r="F238" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G238" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H238" s="7">
         <v>1</v>
@@ -21526,10 +21526,10 @@
         <v>19</v>
       </c>
       <c r="F239" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H239" s="7">
         <v>1</v>
@@ -21579,10 +21579,10 @@
         <v>19</v>
       </c>
       <c r="F240" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G240" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H240" s="7">
         <v>1</v>
@@ -21632,10 +21632,10 @@
         <v>19</v>
       </c>
       <c r="F241" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G241" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G241" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H241" s="7">
         <v>1</v>
@@ -21685,10 +21685,10 @@
         <v>19</v>
       </c>
       <c r="F242" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G242" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G242" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H242" s="7">
         <v>1</v>
@@ -21738,10 +21738,10 @@
         <v>19</v>
       </c>
       <c r="F243" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G243" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H243" s="7">
         <v>1</v>
@@ -21791,10 +21791,10 @@
         <v>19</v>
       </c>
       <c r="F244" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G244" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H244" s="7">
         <v>1</v>
@@ -21844,10 +21844,10 @@
         <v>19</v>
       </c>
       <c r="F245" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G245" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H245" s="7">
         <v>1</v>
@@ -21897,10 +21897,10 @@
         <v>19</v>
       </c>
       <c r="F246" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G246" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H246" s="7">
         <v>1</v>
@@ -21950,10 +21950,10 @@
         <v>19</v>
       </c>
       <c r="F247" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G247" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G247" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H247" s="7">
         <v>1</v>
@@ -22003,10 +22003,10 @@
         <v>19</v>
       </c>
       <c r="F248" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G248" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H248" s="7">
         <v>1</v>
@@ -22056,10 +22056,10 @@
         <v>19</v>
       </c>
       <c r="F249" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G249" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H249" s="7">
         <v>1</v>
@@ -22109,10 +22109,10 @@
         <v>19</v>
       </c>
       <c r="F250" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H250" s="7">
         <v>1</v>
@@ -22162,10 +22162,10 @@
         <v>19</v>
       </c>
       <c r="F251" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G251" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H251" s="7">
         <v>1</v>
@@ -22215,10 +22215,10 @@
         <v>19</v>
       </c>
       <c r="F252" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H252" s="7">
         <v>1</v>
@@ -22268,10 +22268,10 @@
         <v>19</v>
       </c>
       <c r="F253" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H253" s="7">
         <v>1</v>
@@ -22321,10 +22321,10 @@
         <v>19</v>
       </c>
       <c r="F254" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H254" s="7">
         <v>1</v>
@@ -22374,10 +22374,10 @@
         <v>19</v>
       </c>
       <c r="F255" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G255" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G255" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H255" s="7">
         <v>1</v>
@@ -22427,10 +22427,10 @@
         <v>19</v>
       </c>
       <c r="F256" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G256" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H256" s="7">
         <v>1</v>
@@ -22480,10 +22480,10 @@
         <v>19</v>
       </c>
       <c r="F257" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G257" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G257" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H257" s="7">
         <v>1</v>
@@ -22533,10 +22533,10 @@
         <v>19</v>
       </c>
       <c r="F258" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G258" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H258" s="7">
         <v>1</v>
@@ -22586,10 +22586,10 @@
         <v>19</v>
       </c>
       <c r="F259" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G259" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H259" s="7">
         <v>1</v>
@@ -22639,10 +22639,10 @@
         <v>19</v>
       </c>
       <c r="F260" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G260" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G260" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H260" s="7">
         <v>1</v>
@@ -22692,10 +22692,10 @@
         <v>19</v>
       </c>
       <c r="F261" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G261" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G261" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H261" s="7">
         <v>1</v>
@@ -22756,19 +22756,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/dataframe/10021.xlsx
+++ b/data/dataframe/10021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8488526-E909-034A-8F57-F393042C7538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5871EE-86FB-D748-A2A4-5C36660231C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33780" yWindow="1160" windowWidth="26940" windowHeight="19140" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>nmc</t>
   </si>
   <si>
-    <t>sig</t>
-  </si>
-  <si>
     <t>d/p</t>
   </si>
   <si>
@@ -109,12 +106,15 @@
   <si>
     <t>mu_minus</t>
   </si>
+  <si>
+    <t>F2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -153,6 +153,12 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -8886,8 +8892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F261"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8915,7 +8921,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -8959,16 +8965,16 @@
         <v>0.16</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -9012,16 +9018,16 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -9065,16 +9071,16 @@
         <v>0.35</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -9118,16 +9124,16 @@
         <v>0.45</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -9171,16 +9177,16 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -9224,16 +9230,16 @@
         <v>0.17</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -9277,16 +9283,16 @@
         <v>0.25</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -9330,16 +9336,16 @@
         <v>0.35</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -9383,16 +9389,16 @@
         <v>0.45</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -9436,16 +9442,16 @@
         <v>0.63</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -9489,16 +9495,16 @@
         <v>0.88</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9542,16 +9548,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -9595,16 +9601,16 @@
         <v>0.16</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -9648,16 +9654,16 @@
         <v>0.25</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -9701,16 +9707,16 @@
         <v>0.35</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9754,16 +9760,16 @@
         <v>0.45</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -9807,16 +9813,16 @@
         <v>0.61</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -9860,16 +9866,16 @@
         <v>0.88</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -9913,16 +9919,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9966,16 +9972,16 @@
         <v>1.38</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -10019,16 +10025,16 @@
         <v>1.71</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -10072,16 +10078,16 @@
         <v>0.16</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -10125,16 +10131,16 @@
         <v>0.25</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10178,16 +10184,16 @@
         <v>0.35</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -10231,16 +10237,16 @@
         <v>0.45</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -10284,16 +10290,16 @@
         <v>0.64</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -10337,16 +10343,16 @@
         <v>0.86</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10390,16 +10396,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10443,16 +10449,16 @@
         <v>1.37</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -10496,16 +10502,16 @@
         <v>1.75</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -10549,16 +10555,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10602,16 +10608,16 @@
         <v>2.73</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -10655,16 +10661,16 @@
         <v>3.46</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -10708,16 +10714,16 @@
         <v>0.16</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -10761,16 +10767,16 @@
         <v>0.26</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10814,16 +10820,16 @@
         <v>0.35</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -10867,16 +10873,16 @@
         <v>0.45</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10920,16 +10926,16 @@
         <v>0.62</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -10973,16 +10979,16 @@
         <v>0.88</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11026,16 +11032,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -11079,16 +11085,16 @@
         <v>1.37</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -11132,16 +11138,16 @@
         <v>1.74</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -11185,16 +11191,16 @@
         <v>2.23</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -11238,16 +11244,16 @@
         <v>2.74</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -11291,16 +11297,16 @@
         <v>3.46</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -11344,16 +11350,16 @@
         <v>4.47</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -11397,16 +11403,16 @@
         <v>5.41</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -11450,16 +11456,16 @@
         <v>0.25</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -11503,16 +11509,16 @@
         <v>0.35</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -11556,16 +11562,16 @@
         <v>0.45</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -11609,16 +11615,16 @@
         <v>0.62</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -11662,16 +11668,16 @@
         <v>0.88</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -11715,16 +11721,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -11768,16 +11774,16 @@
         <v>1.37</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -11821,16 +11827,16 @@
         <v>1.75</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -11874,16 +11880,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -11927,16 +11933,16 @@
         <v>2.73</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -11980,16 +11986,16 @@
         <v>3.48</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -12033,16 +12039,16 @@
         <v>4.47</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -12086,16 +12092,16 @@
         <v>5.49</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -12139,16 +12145,16 @@
         <v>6.83</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -12192,16 +12198,16 @@
         <v>0.26</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -12245,16 +12251,16 @@
         <v>0.35</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -12298,16 +12304,16 @@
         <v>0.45</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -12351,16 +12357,16 @@
         <v>0.62</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -12404,16 +12410,16 @@
         <v>0.86</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -12457,16 +12463,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -12510,16 +12516,16 @@
         <v>1.37</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -12563,16 +12569,16 @@
         <v>1.74</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -12616,16 +12622,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -12669,16 +12675,16 @@
         <v>2.74</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -12722,16 +12728,16 @@
         <v>3.45</v>
       </c>
       <c r="D73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="F73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -12775,16 +12781,16 @@
         <v>4.47</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -12828,16 +12834,16 @@
         <v>5.48</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
@@ -12881,16 +12887,16 @@
         <v>6.92</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
@@ -12934,16 +12940,16 @@
         <v>8.92</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -12987,16 +12993,16 @@
         <v>0.36</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -13040,16 +13046,16 @@
         <v>0.45</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -13093,16 +13099,16 @@
         <v>0.64</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="F80" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -13146,16 +13152,16 @@
         <v>0.86</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -13199,16 +13205,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="F82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
@@ -13252,16 +13258,16 @@
         <v>1.38</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="F83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -13305,16 +13311,16 @@
         <v>1.74</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="F84" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -13358,16 +13364,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -13411,16 +13417,16 @@
         <v>2.74</v>
       </c>
       <c r="D86" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -13464,16 +13470,16 @@
         <v>3.46</v>
       </c>
       <c r="D87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
@@ -13517,16 +13523,16 @@
         <v>4.45</v>
       </c>
       <c r="D88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
@@ -13570,16 +13576,16 @@
         <v>5.47</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -13623,16 +13629,16 @@
         <v>6.92</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -13676,16 +13682,16 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="D91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -13729,16 +13735,16 @@
         <v>11.45</v>
       </c>
       <c r="D92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -13782,16 +13788,16 @@
         <v>14.36</v>
       </c>
       <c r="D93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
@@ -13835,16 +13841,16 @@
         <v>0.46</v>
       </c>
       <c r="D94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
@@ -13888,16 +13894,16 @@
         <v>0.61</v>
       </c>
       <c r="D95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
@@ -13941,16 +13947,16 @@
         <v>0.88</v>
       </c>
       <c r="D96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -13994,16 +14000,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H97" s="7">
         <v>1</v>
@@ -14047,16 +14053,16 @@
         <v>1.37</v>
       </c>
       <c r="D98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
@@ -14100,16 +14106,16 @@
         <v>1.74</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H99" s="7">
         <v>1</v>
@@ -14153,16 +14159,16 @@
         <v>2.25</v>
       </c>
       <c r="D100" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
@@ -14206,16 +14212,16 @@
         <v>2.74</v>
       </c>
       <c r="D101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H101" s="7">
         <v>1</v>
@@ -14259,16 +14265,16 @@
         <v>3.46</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H102" s="7">
         <v>1</v>
@@ -14312,16 +14318,16 @@
         <v>4.46</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -14365,16 +14371,16 @@
         <v>5.46</v>
       </c>
       <c r="D104" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="F104" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -14418,16 +14424,16 @@
         <v>6.9</v>
       </c>
       <c r="D105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H105" s="7">
         <v>1</v>
@@ -14471,16 +14477,16 @@
         <v>8.93</v>
       </c>
       <c r="D106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H106" s="7">
         <v>1</v>
@@ -14524,16 +14530,16 @@
         <v>11.44</v>
       </c>
       <c r="D107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H107" s="7">
         <v>1</v>
@@ -14577,16 +14583,16 @@
         <v>14.82</v>
       </c>
       <c r="D108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="F108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H108" s="7">
         <v>1</v>
@@ -14630,16 +14636,16 @@
         <v>19.190000000000001</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="F109" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H109" s="7">
         <v>1</v>
@@ -14683,16 +14689,16 @@
         <v>0.68</v>
       </c>
       <c r="D110" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="F110" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
@@ -14736,16 +14742,16 @@
         <v>0.86</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H111" s="7">
         <v>1</v>
@@ -14789,16 +14795,16 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="D112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="F112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H112" s="7">
         <v>1</v>
@@ -14842,16 +14848,16 @@
         <v>1.38</v>
       </c>
       <c r="D113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="F113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H113" s="7">
         <v>1</v>
@@ -14895,16 +14901,16 @@
         <v>1.74</v>
       </c>
       <c r="D114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="F114" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H114" s="7">
         <v>1</v>
@@ -14948,16 +14954,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="F115" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H115" s="7">
         <v>1</v>
@@ -15001,16 +15007,16 @@
         <v>2.75</v>
       </c>
       <c r="D116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="F116" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H116" s="7">
         <v>1</v>
@@ -15054,16 +15060,16 @@
         <v>3.47</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="F117" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H117" s="7">
         <v>1</v>
@@ -15107,16 +15113,16 @@
         <v>4.47</v>
       </c>
       <c r="D118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="F118" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H118" s="7">
         <v>1</v>
@@ -15160,16 +15166,16 @@
         <v>5.47</v>
       </c>
       <c r="D119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="F119" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H119" s="7">
         <v>1</v>
@@ -15213,16 +15219,16 @@
         <v>6.91</v>
       </c>
       <c r="D120" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="F120" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H120" s="7">
         <v>1</v>
@@ -15266,16 +15272,16 @@
         <v>8.91</v>
       </c>
       <c r="D121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="F121" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H121" s="7">
         <v>1</v>
@@ -15319,16 +15325,16 @@
         <v>11.4</v>
       </c>
       <c r="D122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="F122" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H122" s="7">
         <v>1</v>
@@ -15372,16 +15378,16 @@
         <v>14.89</v>
       </c>
       <c r="D123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="F123" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H123" s="7">
         <v>1</v>
@@ -15425,16 +15431,16 @@
         <v>19.63</v>
       </c>
       <c r="D124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="F124" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H124" s="7">
         <v>1</v>
@@ -15478,16 +15484,16 @@
         <v>26.07</v>
       </c>
       <c r="D125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="F125" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H125" s="7">
         <v>1</v>
@@ -15531,16 +15537,16 @@
         <v>0.9</v>
       </c>
       <c r="D126" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H126" s="7">
         <v>1</v>
@@ -15584,16 +15590,16 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="D127" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="F127" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H127" s="7">
         <v>1</v>
@@ -15637,16 +15643,16 @@
         <v>1.38</v>
       </c>
       <c r="D128" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="F128" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H128" s="7">
         <v>1</v>
@@ -15690,16 +15696,16 @@
         <v>1.76</v>
       </c>
       <c r="D129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="F129" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H129" s="7">
         <v>1</v>
@@ -15743,16 +15749,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D130" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="F130" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H130" s="7">
         <v>1</v>
@@ -15796,16 +15802,16 @@
         <v>2.75</v>
       </c>
       <c r="D131" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="F131" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H131" s="7">
         <v>1</v>
@@ -15849,16 +15855,16 @@
         <v>3.49</v>
       </c>
       <c r="D132" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="F132" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H132" s="7">
         <v>1</v>
@@ -15902,16 +15908,16 @@
         <v>4.47</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="F133" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H133" s="7">
         <v>1</v>
@@ -15955,16 +15961,16 @@
         <v>5.46</v>
       </c>
       <c r="D134" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H134" s="7">
         <v>1</v>
@@ -16008,16 +16014,16 @@
         <v>6.91</v>
       </c>
       <c r="D135" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="F135" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H135" s="7">
         <v>1</v>
@@ -16061,16 +16067,16 @@
         <v>8.92</v>
       </c>
       <c r="D136" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="F136" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H136" s="7">
         <v>1</v>
@@ -16114,16 +16120,16 @@
         <v>11.37</v>
       </c>
       <c r="D137" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="F137" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H137" s="7">
         <v>1</v>
@@ -16167,16 +16173,16 @@
         <v>14.87</v>
       </c>
       <c r="D138" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="F138" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H138" s="7">
         <v>1</v>
@@ -16220,16 +16226,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D139" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="F139" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H139" s="7">
         <v>1</v>
@@ -16273,16 +16279,16 @@
         <v>26.36</v>
       </c>
       <c r="D140" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="F140" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H140" s="7">
         <v>1</v>
@@ -16326,16 +16332,16 @@
         <v>34.74</v>
       </c>
       <c r="D141" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="F141" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H141" s="7">
         <v>1</v>
@@ -16379,16 +16385,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="F142" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H142" s="7">
         <v>1</v>
@@ -16432,16 +16438,16 @@
         <v>1.38</v>
       </c>
       <c r="D143" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="F143" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H143" s="7">
         <v>1</v>
@@ -16485,16 +16491,16 @@
         <v>1.75</v>
       </c>
       <c r="D144" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="F144" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H144" s="7">
         <v>1</v>
@@ -16538,16 +16544,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D145" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="F145" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H145" s="7">
         <v>1</v>
@@ -16591,16 +16597,16 @@
         <v>2.74</v>
       </c>
       <c r="D146" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="F146" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H146" s="7">
         <v>1</v>
@@ -16644,16 +16650,16 @@
         <v>3.49</v>
       </c>
       <c r="D147" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="F147" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H147" s="7">
         <v>1</v>
@@ -16697,16 +16703,16 @@
         <v>4.47</v>
       </c>
       <c r="D148" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="F148" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H148" s="7">
         <v>1</v>
@@ -16750,16 +16756,16 @@
         <v>5.46</v>
       </c>
       <c r="D149" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="F149" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H149" s="7">
         <v>1</v>
@@ -16803,16 +16809,16 @@
         <v>6.9</v>
       </c>
       <c r="D150" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="F150" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H150" s="7">
         <v>1</v>
@@ -16856,16 +16862,16 @@
         <v>8.92</v>
       </c>
       <c r="D151" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="F151" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H151" s="7">
         <v>1</v>
@@ -16909,16 +16915,16 @@
         <v>11.37</v>
       </c>
       <c r="D152" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="F152" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H152" s="7">
         <v>1</v>
@@ -16962,16 +16968,16 @@
         <v>14.85</v>
       </c>
       <c r="D153" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="F153" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H153" s="7">
         <v>1</v>
@@ -17015,16 +17021,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D154" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E154" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="F154" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H154" s="7">
         <v>1</v>
@@ -17068,16 +17074,16 @@
         <v>26.52</v>
       </c>
       <c r="D155" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="F155" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H155" s="7">
         <v>1</v>
@@ -17121,16 +17127,16 @@
         <v>35.32</v>
       </c>
       <c r="D156" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="F156" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H156" s="7">
         <v>1</v>
@@ -17174,16 +17180,16 @@
         <v>44.94</v>
       </c>
       <c r="D157" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="F157" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H157" s="7">
         <v>1</v>
@@ -17227,16 +17233,16 @@
         <v>1.4</v>
       </c>
       <c r="D158" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="F158" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H158" s="7">
         <v>1</v>
@@ -17280,16 +17286,16 @@
         <v>1.75</v>
       </c>
       <c r="D159" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="F159" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H159" s="7">
         <v>1</v>
@@ -17333,16 +17339,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D160" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="F160" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H160" s="7">
         <v>1</v>
@@ -17386,16 +17392,16 @@
         <v>2.74</v>
       </c>
       <c r="D161" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="F161" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H161" s="7">
         <v>1</v>
@@ -17439,16 +17445,16 @@
         <v>3.47</v>
       </c>
       <c r="D162" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="F162" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H162" s="7">
         <v>1</v>
@@ -17492,16 +17498,16 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="D163" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="F163" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H163" s="7">
         <v>1</v>
@@ -17545,16 +17551,16 @@
         <v>5.47</v>
       </c>
       <c r="D164" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="F164" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H164" s="7">
         <v>1</v>
@@ -17598,16 +17604,16 @@
         <v>6.9</v>
       </c>
       <c r="D165" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="F165" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H165" s="7">
         <v>1</v>
@@ -17651,16 +17657,16 @@
         <v>8.92</v>
       </c>
       <c r="D166" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="F166" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H166" s="7">
         <v>1</v>
@@ -17704,16 +17710,16 @@
         <v>11.37</v>
       </c>
       <c r="D167" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="F167" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H167" s="7">
         <v>1</v>
@@ -17757,16 +17763,16 @@
         <v>14.84</v>
       </c>
       <c r="D168" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="F168" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H168" s="7">
         <v>1</v>
@@ -17810,16 +17816,16 @@
         <v>19.760000000000002</v>
       </c>
       <c r="D169" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="F169" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H169" s="7">
         <v>1</v>
@@ -17863,16 +17869,16 @@
         <v>26.55</v>
       </c>
       <c r="D170" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="F170" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H170" s="7">
         <v>1</v>
@@ -17916,16 +17922,16 @@
         <v>35.28</v>
       </c>
       <c r="D171" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="F171" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H171" s="7">
         <v>1</v>
@@ -17969,16 +17975,16 @@
         <v>46.95</v>
       </c>
       <c r="D172" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="F172" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H172" s="7">
         <v>1</v>
@@ -18022,16 +18028,16 @@
         <v>1.82</v>
       </c>
       <c r="D173" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="F173" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H173" s="7">
         <v>1</v>
@@ -18075,16 +18081,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D174" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="F174" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H174" s="7">
         <v>1</v>
@@ -18128,16 +18134,16 @@
         <v>2.75</v>
       </c>
       <c r="D175" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="F175" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H175" s="7">
         <v>1</v>
@@ -18181,16 +18187,16 @@
         <v>3.47</v>
       </c>
       <c r="D176" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="F176" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H176" s="7">
         <v>1</v>
@@ -18234,16 +18240,16 @@
         <v>4.47</v>
       </c>
       <c r="D177" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="F177" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H177" s="7">
         <v>1</v>
@@ -18287,16 +18293,16 @@
         <v>5.49</v>
       </c>
       <c r="D178" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="F178" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G178" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H178" s="7">
         <v>1</v>
@@ -18340,16 +18346,16 @@
         <v>6.92</v>
       </c>
       <c r="D179" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="F179" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H179" s="7">
         <v>1</v>
@@ -18393,16 +18399,16 @@
         <v>8.93</v>
       </c>
       <c r="D180" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="F180" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H180" s="7">
         <v>1</v>
@@ -18446,16 +18452,16 @@
         <v>11.37</v>
       </c>
       <c r="D181" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="F181" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H181" s="7">
         <v>1</v>
@@ -18499,16 +18505,16 @@
         <v>14.85</v>
       </c>
       <c r="D182" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="F182" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H182" s="7">
         <v>1</v>
@@ -18552,16 +18558,16 @@
         <v>19.75</v>
       </c>
       <c r="D183" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="F183" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H183" s="7">
         <v>1</v>
@@ -18605,16 +18611,16 @@
         <v>26.61</v>
       </c>
       <c r="D184" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="F184" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H184" s="7">
         <v>1</v>
@@ -18658,16 +18664,16 @@
         <v>35.369999999999997</v>
       </c>
       <c r="D185" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="F185" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H185" s="7">
         <v>1</v>
@@ -18711,16 +18717,16 @@
         <v>47.01</v>
       </c>
       <c r="D186" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="F186" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G186" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H186" s="7">
         <v>1</v>
@@ -18764,16 +18770,16 @@
         <v>63.04</v>
       </c>
       <c r="D187" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="F187" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H187" s="7">
         <v>1</v>
@@ -18817,16 +18823,16 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="D188" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="F188" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H188" s="7">
         <v>1</v>
@@ -18870,16 +18876,16 @@
         <v>2.74</v>
       </c>
       <c r="D189" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="F189" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H189" s="7">
         <v>1</v>
@@ -18923,16 +18929,16 @@
         <v>3.48</v>
       </c>
       <c r="D190" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="F190" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H190" s="7">
         <v>1</v>
@@ -18976,16 +18982,16 @@
         <v>4.47</v>
       </c>
       <c r="D191" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="F191" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H191" s="7">
         <v>1</v>
@@ -19029,16 +19035,16 @@
         <v>5.47</v>
       </c>
       <c r="D192" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="F192" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H192" s="7">
         <v>1</v>
@@ -19082,16 +19088,16 @@
         <v>6.97</v>
       </c>
       <c r="D193" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="F193" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H193" s="7">
         <v>1</v>
@@ -19135,16 +19141,16 @@
         <v>8.93</v>
       </c>
       <c r="D194" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="F194" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G194" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H194" s="7">
         <v>1</v>
@@ -19188,16 +19194,16 @@
         <v>11.38</v>
       </c>
       <c r="D195" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="F195" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G195" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H195" s="7">
         <v>1</v>
@@ -19241,16 +19247,16 @@
         <v>14.85</v>
       </c>
       <c r="D196" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="F196" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G196" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H196" s="7">
         <v>1</v>
@@ -19294,16 +19300,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D197" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="F197" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G197" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H197" s="7">
         <v>1</v>
@@ -19347,16 +19353,16 @@
         <v>26.64</v>
       </c>
       <c r="D198" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="F198" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H198" s="7">
         <v>1</v>
@@ -19400,16 +19406,16 @@
         <v>35.42</v>
       </c>
       <c r="D199" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="F199" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G199" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H199" s="7">
         <v>1</v>
@@ -19453,16 +19459,16 @@
         <v>46.95</v>
       </c>
       <c r="D200" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="F200" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G200" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G200" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H200" s="7">
         <v>1</v>
@@ -19506,16 +19512,16 @@
         <v>63.23</v>
       </c>
       <c r="D201" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E201" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="F201" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H201" s="7">
         <v>1</v>
@@ -19559,16 +19565,16 @@
         <v>2.78</v>
       </c>
       <c r="D202" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="F202" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G202" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H202" s="7">
         <v>1</v>
@@ -19612,16 +19618,16 @@
         <v>3.46</v>
       </c>
       <c r="D203" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E203" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="F203" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G203" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H203" s="7">
         <v>1</v>
@@ -19665,16 +19671,16 @@
         <v>4.47</v>
       </c>
       <c r="D204" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="F204" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G204" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H204" s="7">
         <v>1</v>
@@ -19718,16 +19724,16 @@
         <v>5.47</v>
       </c>
       <c r="D205" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="F205" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G205" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H205" s="7">
         <v>1</v>
@@ -19771,16 +19777,16 @@
         <v>6.89</v>
       </c>
       <c r="D206" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E206" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="F206" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G206" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G206" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H206" s="7">
         <v>1</v>
@@ -19824,16 +19830,16 @@
         <v>8.94</v>
       </c>
       <c r="D207" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E207" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="F207" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G207" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H207" s="7">
         <v>1</v>
@@ -19877,16 +19883,16 @@
         <v>11.37</v>
       </c>
       <c r="D208" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E208" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="F208" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G208" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H208" s="7">
         <v>1</v>
@@ -19930,16 +19936,16 @@
         <v>14.87</v>
       </c>
       <c r="D209" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E209" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="F209" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G209" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H209" s="7">
         <v>1</v>
@@ -19983,16 +19989,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D210" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="F210" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G210" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H210" s="7">
         <v>1</v>
@@ -20036,16 +20042,16 @@
         <v>26.6</v>
       </c>
       <c r="D211" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E211" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="F211" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G211" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H211" s="7">
         <v>1</v>
@@ -20089,16 +20095,16 @@
         <v>35.43</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="F212" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G212" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H212" s="7">
         <v>1</v>
@@ -20142,16 +20148,16 @@
         <v>46.98</v>
       </c>
       <c r="D213" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E213" s="6" t="s">
+      <c r="F213" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G213" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H213" s="7">
         <v>1</v>
@@ -20195,16 +20201,16 @@
         <v>63.48</v>
       </c>
       <c r="D214" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E214" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="F214" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G214" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H214" s="7">
         <v>1</v>
@@ -20248,16 +20254,16 @@
         <v>90.68</v>
       </c>
       <c r="D215" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="F215" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G215" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H215" s="7">
         <v>1</v>
@@ -20301,16 +20307,16 @@
         <v>3.57</v>
       </c>
       <c r="D216" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="F216" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G216" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H216" s="7">
         <v>1</v>
@@ -20354,16 +20360,16 @@
         <v>4.51</v>
       </c>
       <c r="D217" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E217" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="F217" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G217" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H217" s="7">
         <v>1</v>
@@ -20407,16 +20413,16 @@
         <v>5.48</v>
       </c>
       <c r="D218" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E218" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="F218" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G218" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H218" s="7">
         <v>1</v>
@@ -20460,16 +20466,16 @@
         <v>6.9</v>
       </c>
       <c r="D219" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E219" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="F219" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G219" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H219" s="7">
         <v>1</v>
@@ -20513,16 +20519,16 @@
         <v>8.91</v>
       </c>
       <c r="D220" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E220" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="F220" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G220" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H220" s="7">
         <v>1</v>
@@ -20566,16 +20572,16 @@
         <v>11.43</v>
       </c>
       <c r="D221" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="F221" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G221" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H221" s="7">
         <v>1</v>
@@ -20619,16 +20625,16 @@
         <v>14.85</v>
       </c>
       <c r="D222" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="F222" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G222" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H222" s="7">
         <v>1</v>
@@ -20672,16 +20678,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D223" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="F223" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G223" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H223" s="7">
         <v>1</v>
@@ -20725,16 +20731,16 @@
         <v>26.63</v>
       </c>
       <c r="D224" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="F224" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G224" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H224" s="7">
         <v>1</v>
@@ -20778,16 +20784,16 @@
         <v>35.450000000000003</v>
       </c>
       <c r="D225" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="6" t="s">
+      <c r="F225" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H225" s="7">
         <v>1</v>
@@ -20831,16 +20837,16 @@
         <v>47.12</v>
       </c>
       <c r="D226" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="F226" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H226" s="7">
         <v>1</v>
@@ -20884,16 +20890,16 @@
         <v>63.52</v>
       </c>
       <c r="D227" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="F227" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H227" s="7">
         <v>1</v>
@@ -20937,16 +20943,16 @@
         <v>96.35</v>
       </c>
       <c r="D228" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E228" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="F228" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G228" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H228" s="7">
         <v>1</v>
@@ -20990,16 +20996,16 @@
         <v>4.54</v>
       </c>
       <c r="D229" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="F229" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G229" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H229" s="7">
         <v>1</v>
@@ -21043,16 +21049,16 @@
         <v>5.47</v>
       </c>
       <c r="D230" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="F230" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H230" s="7">
         <v>1</v>
@@ -21096,16 +21102,16 @@
         <v>6.93</v>
       </c>
       <c r="D231" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E231" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="F231" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G231" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H231" s="7">
         <v>1</v>
@@ -21149,16 +21155,16 @@
         <v>8.92</v>
       </c>
       <c r="D232" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="F232" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G232" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H232" s="7">
         <v>1</v>
@@ -21202,16 +21208,16 @@
         <v>11.34</v>
       </c>
       <c r="D233" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E233" s="6" t="s">
+      <c r="F233" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G233" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H233" s="7">
         <v>1</v>
@@ -21255,16 +21261,16 @@
         <v>14.89</v>
       </c>
       <c r="D234" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E234" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="F234" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G234" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H234" s="7">
         <v>1</v>
@@ -21308,16 +21314,16 @@
         <v>19.77</v>
       </c>
       <c r="D235" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E235" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="F235" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G235" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H235" s="7">
         <v>1</v>
@@ -21361,16 +21367,16 @@
         <v>26.64</v>
       </c>
       <c r="D236" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E236" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="F236" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G236" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F236" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H236" s="7">
         <v>1</v>
@@ -21414,16 +21420,16 @@
         <v>35.5</v>
       </c>
       <c r="D237" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E237" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="F237" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G237" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H237" s="7">
         <v>1</v>
@@ -21467,16 +21473,16 @@
         <v>47.26</v>
       </c>
       <c r="D238" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E238" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E238" s="6" t="s">
+      <c r="F238" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G238" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H238" s="7">
         <v>1</v>
@@ -21520,16 +21526,16 @@
         <v>63.65</v>
       </c>
       <c r="D239" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E239" s="6" t="s">
+      <c r="F239" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G239" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H239" s="7">
         <v>1</v>
@@ -21573,16 +21579,16 @@
         <v>98.05</v>
       </c>
       <c r="D240" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="F240" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G240" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H240" s="7">
         <v>1</v>
@@ -21626,16 +21632,16 @@
         <v>5.53</v>
       </c>
       <c r="D241" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E241" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="F241" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G241" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G241" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H241" s="7">
         <v>1</v>
@@ -21679,16 +21685,16 @@
         <v>6.88</v>
       </c>
       <c r="D242" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E242" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="F242" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G242" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G242" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H242" s="7">
         <v>1</v>
@@ -21732,16 +21738,16 @@
         <v>8.91</v>
       </c>
       <c r="D243" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E243" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E243" s="6" t="s">
+      <c r="F243" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G243" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H243" s="7">
         <v>1</v>
@@ -21785,16 +21791,16 @@
         <v>11.34</v>
       </c>
       <c r="D244" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E244" s="6" t="s">
+      <c r="F244" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G244" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H244" s="7">
         <v>1</v>
@@ -21838,16 +21844,16 @@
         <v>14.85</v>
       </c>
       <c r="D245" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E245" s="6" t="s">
+      <c r="F245" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G245" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H245" s="7">
         <v>1</v>
@@ -21891,16 +21897,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D246" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E246" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E246" s="6" t="s">
+      <c r="F246" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G246" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H246" s="7">
         <v>1</v>
@@ -21944,16 +21950,16 @@
         <v>26.64</v>
       </c>
       <c r="D247" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E247" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E247" s="6" t="s">
+      <c r="F247" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G247" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G247" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H247" s="7">
         <v>1</v>
@@ -21997,16 +22003,16 @@
         <v>35.57</v>
       </c>
       <c r="D248" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E248" s="6" t="s">
+      <c r="F248" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G248" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H248" s="7">
         <v>1</v>
@@ -22050,16 +22056,16 @@
         <v>47.16</v>
       </c>
       <c r="D249" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E249" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E249" s="6" t="s">
+      <c r="F249" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F249" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G249" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H249" s="7">
         <v>1</v>
@@ -22103,16 +22109,16 @@
         <v>63.56</v>
       </c>
       <c r="D250" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E250" s="6" t="s">
+      <c r="F250" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H250" s="7">
         <v>1</v>
@@ -22156,16 +22162,16 @@
         <v>98.82</v>
       </c>
       <c r="D251" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E251" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E251" s="6" t="s">
+      <c r="F251" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G251" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H251" s="7">
         <v>1</v>
@@ -22209,16 +22215,16 @@
         <v>7.04</v>
       </c>
       <c r="D252" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E252" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E252" s="6" t="s">
+      <c r="F252" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H252" s="7">
         <v>1</v>
@@ -22262,16 +22268,16 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="D253" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E253" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="F253" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F253" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H253" s="7">
         <v>1</v>
@@ -22315,16 +22321,16 @@
         <v>11.36</v>
       </c>
       <c r="D254" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E254" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E254" s="6" t="s">
+      <c r="F254" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H254" s="7">
         <v>1</v>
@@ -22368,16 +22374,16 @@
         <v>14.85</v>
       </c>
       <c r="D255" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E255" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="F255" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G255" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G255" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H255" s="7">
         <v>1</v>
@@ -22421,16 +22427,16 @@
         <v>19.79</v>
       </c>
       <c r="D256" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E256" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E256" s="6" t="s">
+      <c r="F256" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F256" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H256" s="7">
         <v>1</v>
@@ -22474,16 +22480,16 @@
         <v>26.49</v>
       </c>
       <c r="D257" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E257" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E257" s="6" t="s">
+      <c r="F257" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G257" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F257" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G257" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H257" s="7">
         <v>1</v>
@@ -22527,16 +22533,16 @@
         <v>35.4</v>
       </c>
       <c r="D258" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E258" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E258" s="6" t="s">
+      <c r="F258" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G258" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F258" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H258" s="7">
         <v>1</v>
@@ -22580,16 +22586,16 @@
         <v>47.03</v>
       </c>
       <c r="D259" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E259" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E259" s="6" t="s">
+      <c r="F259" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G259" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H259" s="7">
         <v>1</v>
@@ -22633,16 +22639,16 @@
         <v>63.53</v>
       </c>
       <c r="D260" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E260" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E260" s="6" t="s">
+      <c r="F260" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G260" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G260" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H260" s="7">
         <v>1</v>
@@ -22686,16 +22692,16 @@
         <v>99.03</v>
       </c>
       <c r="D261" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E261" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E261" s="6" t="s">
+      <c r="F261" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G261" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G261" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H261" s="7">
         <v>1</v>
@@ -22729,6 +22735,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -22756,19 +22763,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/dataframe/10021.xlsx
+++ b/data/dataframe/10021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shujie/jlab/CJ/CJ-database/data/JAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C718DC-C5EC-D042-A57C-7A9771B6851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5871EE-86FB-D748-A2A4-5C36660231C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="16380" windowHeight="8200" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33780" yWindow="1160" windowWidth="26940" windowHeight="19140" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -83,13 +83,7 @@
     <t>nmc</t>
   </si>
   <si>
-    <t>sig</t>
-  </si>
-  <si>
     <t>d/p</t>
-  </si>
-  <si>
-    <t>mu</t>
   </si>
   <si>
     <t>nc</t>
@@ -109,12 +103,18 @@
   <si>
     <t>current</t>
   </si>
+  <si>
+    <t>mu_minus</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -153,6 +153,12 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -219,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -365,7 +371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8886,8 +8892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8915,7 +8921,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -8959,16 +8965,16 @@
         <v>0.16</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -9012,16 +9018,16 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -9065,16 +9071,16 @@
         <v>0.35</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -9118,16 +9124,16 @@
         <v>0.45</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -9171,16 +9177,16 @@
         <v>0.6</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -9224,16 +9230,16 @@
         <v>0.17</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -9277,16 +9283,16 @@
         <v>0.25</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -9330,16 +9336,16 @@
         <v>0.35</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -9383,16 +9389,16 @@
         <v>0.45</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -9436,16 +9442,16 @@
         <v>0.63</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -9489,16 +9495,16 @@
         <v>0.88</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -9542,16 +9548,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -9595,16 +9601,16 @@
         <v>0.16</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -9648,16 +9654,16 @@
         <v>0.25</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -9701,16 +9707,16 @@
         <v>0.35</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -9754,16 +9760,16 @@
         <v>0.45</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -9807,16 +9813,16 @@
         <v>0.61</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -9860,16 +9866,16 @@
         <v>0.88</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -9913,16 +9919,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9966,16 +9972,16 @@
         <v>1.38</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -10019,16 +10025,16 @@
         <v>1.71</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -10072,16 +10078,16 @@
         <v>0.16</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -10125,16 +10131,16 @@
         <v>0.25</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -10178,16 +10184,16 @@
         <v>0.35</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -10231,16 +10237,16 @@
         <v>0.45</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -10284,16 +10290,16 @@
         <v>0.64</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -10337,16 +10343,16 @@
         <v>0.86</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10390,16 +10396,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10443,16 +10449,16 @@
         <v>1.37</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -10496,16 +10502,16 @@
         <v>1.75</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -10549,16 +10555,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10602,16 +10608,16 @@
         <v>2.73</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -10655,16 +10661,16 @@
         <v>3.46</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -10708,16 +10714,16 @@
         <v>0.16</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -10761,16 +10767,16 @@
         <v>0.26</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -10814,16 +10820,16 @@
         <v>0.35</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -10867,16 +10873,16 @@
         <v>0.45</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -10920,16 +10926,16 @@
         <v>0.62</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -10973,16 +10979,16 @@
         <v>0.88</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11026,16 +11032,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -11079,16 +11085,16 @@
         <v>1.37</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -11132,16 +11138,16 @@
         <v>1.74</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -11185,16 +11191,16 @@
         <v>2.23</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -11238,16 +11244,16 @@
         <v>2.74</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -11291,16 +11297,16 @@
         <v>3.46</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -11344,16 +11350,16 @@
         <v>4.47</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -11397,16 +11403,16 @@
         <v>5.41</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -11450,16 +11456,16 @@
         <v>0.25</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -11503,16 +11509,16 @@
         <v>0.35</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -11556,16 +11562,16 @@
         <v>0.45</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -11609,16 +11615,16 @@
         <v>0.62</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -11662,16 +11668,16 @@
         <v>0.88</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -11715,16 +11721,16 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -11768,16 +11774,16 @@
         <v>1.37</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -11821,16 +11827,16 @@
         <v>1.75</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -11874,16 +11880,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -11927,16 +11933,16 @@
         <v>2.73</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -11980,16 +11986,16 @@
         <v>3.48</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -12033,16 +12039,16 @@
         <v>4.47</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -12086,16 +12092,16 @@
         <v>5.49</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -12139,16 +12145,16 @@
         <v>6.83</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -12192,16 +12198,16 @@
         <v>0.26</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -12245,16 +12251,16 @@
         <v>0.35</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -12298,16 +12304,16 @@
         <v>0.45</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -12351,16 +12357,16 @@
         <v>0.62</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -12404,16 +12410,16 @@
         <v>0.86</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -12457,16 +12463,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -12510,16 +12516,16 @@
         <v>1.37</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -12563,16 +12569,16 @@
         <v>1.74</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -12616,16 +12622,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -12669,16 +12675,16 @@
         <v>2.74</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -12722,16 +12728,16 @@
         <v>3.45</v>
       </c>
       <c r="D73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="F73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -12775,16 +12781,16 @@
         <v>4.47</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -12828,16 +12834,16 @@
         <v>5.48</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
@@ -12881,16 +12887,16 @@
         <v>6.92</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
@@ -12934,16 +12940,16 @@
         <v>8.92</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -12987,16 +12993,16 @@
         <v>0.36</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -13040,16 +13046,16 @@
         <v>0.45</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -13093,16 +13099,16 @@
         <v>0.64</v>
       </c>
       <c r="D80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="F80" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -13146,16 +13152,16 @@
         <v>0.86</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -13199,16 +13205,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="F82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
@@ -13252,16 +13258,16 @@
         <v>1.38</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="F83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -13305,16 +13311,16 @@
         <v>1.74</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="F84" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -13358,16 +13364,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -13411,16 +13417,16 @@
         <v>2.74</v>
       </c>
       <c r="D86" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -13464,16 +13470,16 @@
         <v>3.46</v>
       </c>
       <c r="D87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
@@ -13517,16 +13523,16 @@
         <v>4.45</v>
       </c>
       <c r="D88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
@@ -13570,16 +13576,16 @@
         <v>5.47</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -13623,16 +13629,16 @@
         <v>6.92</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -13676,16 +13682,16 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="D91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -13729,16 +13735,16 @@
         <v>11.45</v>
       </c>
       <c r="D92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -13782,16 +13788,16 @@
         <v>14.36</v>
       </c>
       <c r="D93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
@@ -13835,16 +13841,16 @@
         <v>0.46</v>
       </c>
       <c r="D94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
@@ -13888,16 +13894,16 @@
         <v>0.61</v>
       </c>
       <c r="D95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
@@ -13941,16 +13947,16 @@
         <v>0.88</v>
       </c>
       <c r="D96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -13994,16 +14000,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H97" s="7">
         <v>1</v>
@@ -14047,16 +14053,16 @@
         <v>1.37</v>
       </c>
       <c r="D98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
@@ -14100,16 +14106,16 @@
         <v>1.74</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H99" s="7">
         <v>1</v>
@@ -14153,16 +14159,16 @@
         <v>2.25</v>
       </c>
       <c r="D100" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
@@ -14206,16 +14212,16 @@
         <v>2.74</v>
       </c>
       <c r="D101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H101" s="7">
         <v>1</v>
@@ -14259,16 +14265,16 @@
         <v>3.46</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H102" s="7">
         <v>1</v>
@@ -14312,16 +14318,16 @@
         <v>4.46</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -14365,16 +14371,16 @@
         <v>5.46</v>
       </c>
       <c r="D104" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="F104" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -14418,16 +14424,16 @@
         <v>6.9</v>
       </c>
       <c r="D105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H105" s="7">
         <v>1</v>
@@ -14471,16 +14477,16 @@
         <v>8.93</v>
       </c>
       <c r="D106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H106" s="7">
         <v>1</v>
@@ -14524,16 +14530,16 @@
         <v>11.44</v>
       </c>
       <c r="D107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H107" s="7">
         <v>1</v>
@@ -14577,16 +14583,16 @@
         <v>14.82</v>
       </c>
       <c r="D108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="F108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H108" s="7">
         <v>1</v>
@@ -14630,16 +14636,16 @@
         <v>19.190000000000001</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="F109" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H109" s="7">
         <v>1</v>
@@ -14683,16 +14689,16 @@
         <v>0.68</v>
       </c>
       <c r="D110" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="F110" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
@@ -14736,16 +14742,16 @@
         <v>0.86</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H111" s="7">
         <v>1</v>
@@ -14789,16 +14795,16 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="D112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="F112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H112" s="7">
         <v>1</v>
@@ -14842,16 +14848,16 @@
         <v>1.38</v>
       </c>
       <c r="D113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="F113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H113" s="7">
         <v>1</v>
@@ -14895,16 +14901,16 @@
         <v>1.74</v>
       </c>
       <c r="D114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="F114" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H114" s="7">
         <v>1</v>
@@ -14948,16 +14954,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="F115" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H115" s="7">
         <v>1</v>
@@ -15001,16 +15007,16 @@
         <v>2.75</v>
       </c>
       <c r="D116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="F116" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H116" s="7">
         <v>1</v>
@@ -15054,16 +15060,16 @@
         <v>3.47</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="F117" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H117" s="7">
         <v>1</v>
@@ -15107,16 +15113,16 @@
         <v>4.47</v>
       </c>
       <c r="D118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="F118" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H118" s="7">
         <v>1</v>
@@ -15160,16 +15166,16 @@
         <v>5.47</v>
       </c>
       <c r="D119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="F119" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H119" s="7">
         <v>1</v>
@@ -15213,16 +15219,16 @@
         <v>6.91</v>
       </c>
       <c r="D120" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="F120" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H120" s="7">
         <v>1</v>
@@ -15266,16 +15272,16 @@
         <v>8.91</v>
       </c>
       <c r="D121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="F121" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H121" s="7">
         <v>1</v>
@@ -15319,16 +15325,16 @@
         <v>11.4</v>
       </c>
       <c r="D122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="F122" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H122" s="7">
         <v>1</v>
@@ -15372,16 +15378,16 @@
         <v>14.89</v>
       </c>
       <c r="D123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="F123" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H123" s="7">
         <v>1</v>
@@ -15425,16 +15431,16 @@
         <v>19.63</v>
       </c>
       <c r="D124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="F124" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H124" s="7">
         <v>1</v>
@@ -15478,16 +15484,16 @@
         <v>26.07</v>
       </c>
       <c r="D125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="F125" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H125" s="7">
         <v>1</v>
@@ -15531,16 +15537,16 @@
         <v>0.9</v>
       </c>
       <c r="D126" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H126" s="7">
         <v>1</v>
@@ -15584,16 +15590,16 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="D127" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="F127" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H127" s="7">
         <v>1</v>
@@ -15637,16 +15643,16 @@
         <v>1.38</v>
       </c>
       <c r="D128" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="F128" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H128" s="7">
         <v>1</v>
@@ -15690,16 +15696,16 @@
         <v>1.76</v>
       </c>
       <c r="D129" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="F129" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H129" s="7">
         <v>1</v>
@@ -15743,16 +15749,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D130" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="F130" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H130" s="7">
         <v>1</v>
@@ -15796,16 +15802,16 @@
         <v>2.75</v>
       </c>
       <c r="D131" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="F131" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H131" s="7">
         <v>1</v>
@@ -15849,16 +15855,16 @@
         <v>3.49</v>
       </c>
       <c r="D132" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="F132" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H132" s="7">
         <v>1</v>
@@ -15902,16 +15908,16 @@
         <v>4.47</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="F133" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H133" s="7">
         <v>1</v>
@@ -15955,16 +15961,16 @@
         <v>5.46</v>
       </c>
       <c r="D134" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H134" s="7">
         <v>1</v>
@@ -16008,16 +16014,16 @@
         <v>6.91</v>
       </c>
       <c r="D135" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="F135" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H135" s="7">
         <v>1</v>
@@ -16061,16 +16067,16 @@
         <v>8.92</v>
       </c>
       <c r="D136" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="F136" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H136" s="7">
         <v>1</v>
@@ -16114,16 +16120,16 @@
         <v>11.37</v>
       </c>
       <c r="D137" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="F137" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H137" s="7">
         <v>1</v>
@@ -16167,16 +16173,16 @@
         <v>14.87</v>
       </c>
       <c r="D138" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="F138" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H138" s="7">
         <v>1</v>
@@ -16220,16 +16226,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D139" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="F139" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H139" s="7">
         <v>1</v>
@@ -16273,16 +16279,16 @@
         <v>26.36</v>
       </c>
       <c r="D140" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="F140" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H140" s="7">
         <v>1</v>
@@ -16326,16 +16332,16 @@
         <v>34.74</v>
       </c>
       <c r="D141" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="F141" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H141" s="7">
         <v>1</v>
@@ -16379,16 +16385,16 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="F142" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H142" s="7">
         <v>1</v>
@@ -16432,16 +16438,16 @@
         <v>1.38</v>
       </c>
       <c r="D143" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="F143" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H143" s="7">
         <v>1</v>
@@ -16485,16 +16491,16 @@
         <v>1.75</v>
       </c>
       <c r="D144" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="F144" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H144" s="7">
         <v>1</v>
@@ -16538,16 +16544,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D145" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="F145" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H145" s="7">
         <v>1</v>
@@ -16591,16 +16597,16 @@
         <v>2.74</v>
       </c>
       <c r="D146" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="F146" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H146" s="7">
         <v>1</v>
@@ -16644,16 +16650,16 @@
         <v>3.49</v>
       </c>
       <c r="D147" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="F147" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H147" s="7">
         <v>1</v>
@@ -16697,16 +16703,16 @@
         <v>4.47</v>
       </c>
       <c r="D148" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="F148" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H148" s="7">
         <v>1</v>
@@ -16750,16 +16756,16 @@
         <v>5.46</v>
       </c>
       <c r="D149" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="F149" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H149" s="7">
         <v>1</v>
@@ -16803,16 +16809,16 @@
         <v>6.9</v>
       </c>
       <c r="D150" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="F150" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H150" s="7">
         <v>1</v>
@@ -16856,16 +16862,16 @@
         <v>8.92</v>
       </c>
       <c r="D151" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="F151" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H151" s="7">
         <v>1</v>
@@ -16909,16 +16915,16 @@
         <v>11.37</v>
       </c>
       <c r="D152" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="F152" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H152" s="7">
         <v>1</v>
@@ -16962,16 +16968,16 @@
         <v>14.85</v>
       </c>
       <c r="D153" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E153" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="F153" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H153" s="7">
         <v>1</v>
@@ -17015,16 +17021,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D154" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E154" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="F154" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H154" s="7">
         <v>1</v>
@@ -17068,16 +17074,16 @@
         <v>26.52</v>
       </c>
       <c r="D155" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="F155" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H155" s="7">
         <v>1</v>
@@ -17121,16 +17127,16 @@
         <v>35.32</v>
       </c>
       <c r="D156" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="F156" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H156" s="7">
         <v>1</v>
@@ -17174,16 +17180,16 @@
         <v>44.94</v>
       </c>
       <c r="D157" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="F157" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H157" s="7">
         <v>1</v>
@@ -17227,16 +17233,16 @@
         <v>1.4</v>
       </c>
       <c r="D158" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="F158" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H158" s="7">
         <v>1</v>
@@ -17280,16 +17286,16 @@
         <v>1.75</v>
       </c>
       <c r="D159" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="F159" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H159" s="7">
         <v>1</v>
@@ -17333,16 +17339,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D160" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="F160" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H160" s="7">
         <v>1</v>
@@ -17386,16 +17392,16 @@
         <v>2.74</v>
       </c>
       <c r="D161" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="F161" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H161" s="7">
         <v>1</v>
@@ -17439,16 +17445,16 @@
         <v>3.47</v>
       </c>
       <c r="D162" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="F162" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H162" s="7">
         <v>1</v>
@@ -17492,16 +17498,16 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="D163" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="F163" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H163" s="7">
         <v>1</v>
@@ -17545,16 +17551,16 @@
         <v>5.47</v>
       </c>
       <c r="D164" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="F164" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H164" s="7">
         <v>1</v>
@@ -17598,16 +17604,16 @@
         <v>6.9</v>
       </c>
       <c r="D165" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="F165" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H165" s="7">
         <v>1</v>
@@ -17651,16 +17657,16 @@
         <v>8.92</v>
       </c>
       <c r="D166" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="F166" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H166" s="7">
         <v>1</v>
@@ -17704,16 +17710,16 @@
         <v>11.37</v>
       </c>
       <c r="D167" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="F167" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H167" s="7">
         <v>1</v>
@@ -17757,16 +17763,16 @@
         <v>14.84</v>
       </c>
       <c r="D168" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="F168" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H168" s="7">
         <v>1</v>
@@ -17810,16 +17816,16 @@
         <v>19.760000000000002</v>
       </c>
       <c r="D169" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="F169" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H169" s="7">
         <v>1</v>
@@ -17863,16 +17869,16 @@
         <v>26.55</v>
       </c>
       <c r="D170" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="F170" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H170" s="7">
         <v>1</v>
@@ -17916,16 +17922,16 @@
         <v>35.28</v>
       </c>
       <c r="D171" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="F171" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H171" s="7">
         <v>1</v>
@@ -17969,16 +17975,16 @@
         <v>46.95</v>
       </c>
       <c r="D172" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="F172" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H172" s="7">
         <v>1</v>
@@ -18022,16 +18028,16 @@
         <v>1.82</v>
       </c>
       <c r="D173" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="F173" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H173" s="7">
         <v>1</v>
@@ -18075,16 +18081,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D174" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="F174" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H174" s="7">
         <v>1</v>
@@ -18128,16 +18134,16 @@
         <v>2.75</v>
       </c>
       <c r="D175" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="F175" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H175" s="7">
         <v>1</v>
@@ -18181,16 +18187,16 @@
         <v>3.47</v>
       </c>
       <c r="D176" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="F176" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H176" s="7">
         <v>1</v>
@@ -18234,16 +18240,16 @@
         <v>4.47</v>
       </c>
       <c r="D177" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="F177" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H177" s="7">
         <v>1</v>
@@ -18287,16 +18293,16 @@
         <v>5.49</v>
       </c>
       <c r="D178" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="F178" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G178" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H178" s="7">
         <v>1</v>
@@ -18340,16 +18346,16 @@
         <v>6.92</v>
       </c>
       <c r="D179" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="F179" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H179" s="7">
         <v>1</v>
@@ -18393,16 +18399,16 @@
         <v>8.93</v>
       </c>
       <c r="D180" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="F180" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H180" s="7">
         <v>1</v>
@@ -18446,16 +18452,16 @@
         <v>11.37</v>
       </c>
       <c r="D181" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="F181" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H181" s="7">
         <v>1</v>
@@ -18499,16 +18505,16 @@
         <v>14.85</v>
       </c>
       <c r="D182" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="F182" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H182" s="7">
         <v>1</v>
@@ -18552,16 +18558,16 @@
         <v>19.75</v>
       </c>
       <c r="D183" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="F183" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H183" s="7">
         <v>1</v>
@@ -18605,16 +18611,16 @@
         <v>26.61</v>
       </c>
       <c r="D184" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="F184" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H184" s="7">
         <v>1</v>
@@ -18658,16 +18664,16 @@
         <v>35.369999999999997</v>
       </c>
       <c r="D185" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="F185" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H185" s="7">
         <v>1</v>
@@ -18711,16 +18717,16 @@
         <v>47.01</v>
       </c>
       <c r="D186" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="F186" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G186" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H186" s="7">
         <v>1</v>
@@ -18764,16 +18770,16 @@
         <v>63.04</v>
       </c>
       <c r="D187" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="F187" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H187" s="7">
         <v>1</v>
@@ -18817,16 +18823,16 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="D188" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="F188" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H188" s="7">
         <v>1</v>
@@ -18870,16 +18876,16 @@
         <v>2.74</v>
       </c>
       <c r="D189" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="F189" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H189" s="7">
         <v>1</v>
@@ -18923,16 +18929,16 @@
         <v>3.48</v>
       </c>
       <c r="D190" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="F190" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H190" s="7">
         <v>1</v>
@@ -18976,16 +18982,16 @@
         <v>4.47</v>
       </c>
       <c r="D191" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="F191" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H191" s="7">
         <v>1</v>
@@ -19029,16 +19035,16 @@
         <v>5.47</v>
       </c>
       <c r="D192" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="F192" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H192" s="7">
         <v>1</v>
@@ -19082,16 +19088,16 @@
         <v>6.97</v>
       </c>
       <c r="D193" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="F193" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H193" s="7">
         <v>1</v>
@@ -19135,16 +19141,16 @@
         <v>8.93</v>
       </c>
       <c r="D194" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="F194" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G194" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H194" s="7">
         <v>1</v>
@@ -19188,16 +19194,16 @@
         <v>11.38</v>
       </c>
       <c r="D195" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="F195" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H195" s="7">
         <v>1</v>
@@ -19241,16 +19247,16 @@
         <v>14.85</v>
       </c>
       <c r="D196" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="F196" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G196" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H196" s="7">
         <v>1</v>
@@ -19294,16 +19300,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D197" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="F197" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G197" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H197" s="7">
         <v>1</v>
@@ -19347,16 +19353,16 @@
         <v>26.64</v>
       </c>
       <c r="D198" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="F198" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H198" s="7">
         <v>1</v>
@@ -19400,16 +19406,16 @@
         <v>35.42</v>
       </c>
       <c r="D199" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="F199" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G199" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H199" s="7">
         <v>1</v>
@@ -19453,16 +19459,16 @@
         <v>46.95</v>
       </c>
       <c r="D200" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="F200" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G200" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H200" s="7">
         <v>1</v>
@@ -19506,16 +19512,16 @@
         <v>63.23</v>
       </c>
       <c r="D201" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E201" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="F201" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H201" s="7">
         <v>1</v>
@@ -19559,16 +19565,16 @@
         <v>2.78</v>
       </c>
       <c r="D202" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="F202" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G202" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H202" s="7">
         <v>1</v>
@@ -19612,16 +19618,16 @@
         <v>3.46</v>
       </c>
       <c r="D203" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E203" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="F203" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G203" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H203" s="7">
         <v>1</v>
@@ -19665,16 +19671,16 @@
         <v>4.47</v>
       </c>
       <c r="D204" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="F204" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G204" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H204" s="7">
         <v>1</v>
@@ -19718,16 +19724,16 @@
         <v>5.47</v>
       </c>
       <c r="D205" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="F205" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G205" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H205" s="7">
         <v>1</v>
@@ -19771,16 +19777,16 @@
         <v>6.89</v>
       </c>
       <c r="D206" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E206" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="F206" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G206" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H206" s="7">
         <v>1</v>
@@ -19824,16 +19830,16 @@
         <v>8.94</v>
       </c>
       <c r="D207" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E207" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="F207" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G207" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H207" s="7">
         <v>1</v>
@@ -19877,16 +19883,16 @@
         <v>11.37</v>
       </c>
       <c r="D208" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E208" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="F208" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G208" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H208" s="7">
         <v>1</v>
@@ -19930,16 +19936,16 @@
         <v>14.87</v>
       </c>
       <c r="D209" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E209" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="F209" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G209" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H209" s="7">
         <v>1</v>
@@ -19983,16 +19989,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D210" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="F210" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G210" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H210" s="7">
         <v>1</v>
@@ -20036,16 +20042,16 @@
         <v>26.6</v>
       </c>
       <c r="D211" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E211" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="F211" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G211" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H211" s="7">
         <v>1</v>
@@ -20089,16 +20095,16 @@
         <v>35.43</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="F212" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G212" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H212" s="7">
         <v>1</v>
@@ -20142,16 +20148,16 @@
         <v>46.98</v>
       </c>
       <c r="D213" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E213" s="6" t="s">
+      <c r="F213" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G213" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H213" s="7">
         <v>1</v>
@@ -20195,16 +20201,16 @@
         <v>63.48</v>
       </c>
       <c r="D214" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E214" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="F214" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G214" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H214" s="7">
         <v>1</v>
@@ -20248,16 +20254,16 @@
         <v>90.68</v>
       </c>
       <c r="D215" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="F215" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G215" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H215" s="7">
         <v>1</v>
@@ -20301,16 +20307,16 @@
         <v>3.57</v>
       </c>
       <c r="D216" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="F216" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G216" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H216" s="7">
         <v>1</v>
@@ -20354,16 +20360,16 @@
         <v>4.51</v>
       </c>
       <c r="D217" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E217" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="F217" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G217" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H217" s="7">
         <v>1</v>
@@ -20407,16 +20413,16 @@
         <v>5.48</v>
       </c>
       <c r="D218" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E218" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="F218" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G218" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H218" s="7">
         <v>1</v>
@@ -20460,16 +20466,16 @@
         <v>6.9</v>
       </c>
       <c r="D219" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E219" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="F219" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G219" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H219" s="7">
         <v>1</v>
@@ -20513,16 +20519,16 @@
         <v>8.91</v>
       </c>
       <c r="D220" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E220" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="F220" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G220" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H220" s="7">
         <v>1</v>
@@ -20566,16 +20572,16 @@
         <v>11.43</v>
       </c>
       <c r="D221" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="F221" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G221" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H221" s="7">
         <v>1</v>
@@ -20619,16 +20625,16 @@
         <v>14.85</v>
       </c>
       <c r="D222" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="F222" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G222" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H222" s="7">
         <v>1</v>
@@ -20672,16 +20678,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D223" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="F223" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G223" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H223" s="7">
         <v>1</v>
@@ -20725,16 +20731,16 @@
         <v>26.63</v>
       </c>
       <c r="D224" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="F224" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G224" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H224" s="7">
         <v>1</v>
@@ -20778,16 +20784,16 @@
         <v>35.450000000000003</v>
       </c>
       <c r="D225" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="6" t="s">
+      <c r="F225" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H225" s="7">
         <v>1</v>
@@ -20831,16 +20837,16 @@
         <v>47.12</v>
       </c>
       <c r="D226" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="F226" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H226" s="7">
         <v>1</v>
@@ -20884,16 +20890,16 @@
         <v>63.52</v>
       </c>
       <c r="D227" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="F227" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H227" s="7">
         <v>1</v>
@@ -20937,16 +20943,16 @@
         <v>96.35</v>
       </c>
       <c r="D228" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E228" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="F228" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G228" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H228" s="7">
         <v>1</v>
@@ -20990,16 +20996,16 @@
         <v>4.54</v>
       </c>
       <c r="D229" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="F229" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G229" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H229" s="7">
         <v>1</v>
@@ -21043,16 +21049,16 @@
         <v>5.47</v>
       </c>
       <c r="D230" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="F230" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H230" s="7">
         <v>1</v>
@@ -21096,16 +21102,16 @@
         <v>6.93</v>
       </c>
       <c r="D231" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E231" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="F231" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G231" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H231" s="7">
         <v>1</v>
@@ -21149,16 +21155,16 @@
         <v>8.92</v>
       </c>
       <c r="D232" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="F232" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G232" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H232" s="7">
         <v>1</v>
@@ -21202,16 +21208,16 @@
         <v>11.34</v>
       </c>
       <c r="D233" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E233" s="6" t="s">
+      <c r="F233" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G233" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H233" s="7">
         <v>1</v>
@@ -21255,16 +21261,16 @@
         <v>14.89</v>
       </c>
       <c r="D234" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E234" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="F234" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G234" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H234" s="7">
         <v>1</v>
@@ -21308,16 +21314,16 @@
         <v>19.77</v>
       </c>
       <c r="D235" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E235" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="F235" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G235" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H235" s="7">
         <v>1</v>
@@ -21361,16 +21367,16 @@
         <v>26.64</v>
       </c>
       <c r="D236" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E236" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="F236" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G236" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F236" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H236" s="7">
         <v>1</v>
@@ -21414,16 +21420,16 @@
         <v>35.5</v>
       </c>
       <c r="D237" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E237" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="F237" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G237" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H237" s="7">
         <v>1</v>
@@ -21467,16 +21473,16 @@
         <v>47.26</v>
       </c>
       <c r="D238" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E238" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E238" s="6" t="s">
+      <c r="F238" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G238" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G238" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H238" s="7">
         <v>1</v>
@@ -21520,16 +21526,16 @@
         <v>63.65</v>
       </c>
       <c r="D239" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E239" s="6" t="s">
+      <c r="F239" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G239" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H239" s="7">
         <v>1</v>
@@ -21573,16 +21579,16 @@
         <v>98.05</v>
       </c>
       <c r="D240" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="F240" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G240" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G240" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H240" s="7">
         <v>1</v>
@@ -21626,16 +21632,16 @@
         <v>5.53</v>
       </c>
       <c r="D241" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E241" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="F241" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G241" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H241" s="7">
         <v>1</v>
@@ -21679,16 +21685,16 @@
         <v>6.88</v>
       </c>
       <c r="D242" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E242" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="F242" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G242" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G242" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H242" s="7">
         <v>1</v>
@@ -21732,16 +21738,16 @@
         <v>8.91</v>
       </c>
       <c r="D243" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E243" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E243" s="6" t="s">
+      <c r="F243" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G243" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H243" s="7">
         <v>1</v>
@@ -21785,16 +21791,16 @@
         <v>11.34</v>
       </c>
       <c r="D244" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E244" s="6" t="s">
+      <c r="F244" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G244" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F244" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H244" s="7">
         <v>1</v>
@@ -21838,16 +21844,16 @@
         <v>14.85</v>
       </c>
       <c r="D245" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E245" s="6" t="s">
+      <c r="F245" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G245" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H245" s="7">
         <v>1</v>
@@ -21891,16 +21897,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="D246" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E246" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E246" s="6" t="s">
+      <c r="F246" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G246" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H246" s="7">
         <v>1</v>
@@ -21944,16 +21950,16 @@
         <v>26.64</v>
       </c>
       <c r="D247" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E247" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E247" s="6" t="s">
+      <c r="F247" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G247" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G247" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H247" s="7">
         <v>1</v>
@@ -21997,16 +22003,16 @@
         <v>35.57</v>
       </c>
       <c r="D248" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E248" s="6" t="s">
+      <c r="F248" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F248" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H248" s="7">
         <v>1</v>
@@ -22050,16 +22056,16 @@
         <v>47.16</v>
       </c>
       <c r="D249" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E249" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E249" s="6" t="s">
+      <c r="F249" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F249" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G249" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H249" s="7">
         <v>1</v>
@@ -22103,16 +22109,16 @@
         <v>63.56</v>
       </c>
       <c r="D250" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E250" s="6" t="s">
+      <c r="F250" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H250" s="7">
         <v>1</v>
@@ -22156,16 +22162,16 @@
         <v>98.82</v>
       </c>
       <c r="D251" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E251" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E251" s="6" t="s">
+      <c r="F251" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F251" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G251" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H251" s="7">
         <v>1</v>
@@ -22209,16 +22215,16 @@
         <v>7.04</v>
       </c>
       <c r="D252" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E252" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E252" s="6" t="s">
+      <c r="F252" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H252" s="7">
         <v>1</v>
@@ -22262,16 +22268,16 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="D253" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E253" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="F253" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F253" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H253" s="7">
         <v>1</v>
@@ -22315,16 +22321,16 @@
         <v>11.36</v>
       </c>
       <c r="D254" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E254" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E254" s="6" t="s">
+      <c r="F254" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F254" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H254" s="7">
         <v>1</v>
@@ -22368,16 +22374,16 @@
         <v>14.85</v>
       </c>
       <c r="D255" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E255" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="F255" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G255" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F255" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G255" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H255" s="7">
         <v>1</v>
@@ -22421,16 +22427,16 @@
         <v>19.79</v>
       </c>
       <c r="D256" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E256" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E256" s="6" t="s">
+      <c r="F256" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F256" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H256" s="7">
         <v>1</v>
@@ -22474,16 +22480,16 @@
         <v>26.49</v>
       </c>
       <c r="D257" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E257" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E257" s="6" t="s">
+      <c r="F257" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G257" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F257" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G257" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H257" s="7">
         <v>1</v>
@@ -22527,16 +22533,16 @@
         <v>35.4</v>
       </c>
       <c r="D258" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E258" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E258" s="6" t="s">
+      <c r="F258" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G258" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F258" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H258" s="7">
         <v>1</v>
@@ -22580,16 +22586,16 @@
         <v>47.03</v>
       </c>
       <c r="D259" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E259" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E259" s="6" t="s">
+      <c r="F259" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G259" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F259" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G259" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H259" s="7">
         <v>1</v>
@@ -22633,16 +22639,16 @@
         <v>63.53</v>
       </c>
       <c r="D260" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E260" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E260" s="6" t="s">
+      <c r="F260" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G260" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F260" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G260" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H260" s="7">
         <v>1</v>
@@ -22686,16 +22692,16 @@
         <v>99.03</v>
       </c>
       <c r="D261" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E261" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E261" s="6" t="s">
+      <c r="F261" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G261" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G261" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H261" s="7">
         <v>1</v>
@@ -22729,6 +22735,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -22756,19 +22763,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
